--- a/results/profiles.xlsx
+++ b/results/profiles.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="kproto_6" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="kproto_61" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="kproto_8" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="kproto_new_8" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9815,4 +9816,3614 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I116"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>month_3</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.004880032533550223</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.006185567010309278</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.003703703703703704</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.003430531732418525</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.002879473467708762</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.006123919308357349</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0056772100567721</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>month_4</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1577877185847906</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1587628865979381</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1296296296296296</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1462264150943396</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1443850267379679</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1473342939481268</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.1613949716139497</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>month_5</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1679544530296869</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1618556701030928</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1697530864197531</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1728130360205832</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1871657754010695</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1563400576368876</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1727493917274939</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>month_6</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1606344042293615</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1690721649484536</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1635802469135803</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1743138936535163</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1583710407239819</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1639048991354467</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1638280616382806</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>month_7</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1549410329402196</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.161340206185567</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1734567901234568</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1614493996569468</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.155902920608803</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1635446685878963</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1573398215733982</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>month_8</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1777145180967873</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1680412371134021</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1839506172839506</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1794596912521441</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1826408885232415</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.1725504322766571</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.186536901865369</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>month_9</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1685644570963807</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1644329896907216</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1648148148148148</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1554459691252144</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.1583710407239819</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.180835734870317</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.1467964314679643</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>month_10</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.007523383489223262</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01030927835051546</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.01111111111111111</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.00686106346483705</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.01028383381324558</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.009365994236311239</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0056772100567721</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>doubleheader</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.009760065067100447</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01030927835051546</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.01481481481481482</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.01050600343053173</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.01727684080625257</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.01621037463976945</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0145985401459854</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>pit_team_is_home</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.590687271248475</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3680412371134021</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.412962962962963</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.6162092624356775</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.4175236528177705</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.3930115273775216</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.4387672343876723</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>game_type_Division</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5130134200894673</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4345360824742268</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4487654320987654</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.434819897084048</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.3784450843274373</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.5525936599423631</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.4517437145174372</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>game_type_Interleague</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.09922732818218788</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1082474226804124</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.1197530864197531</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1307890222984563</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.1127108185931715</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.1001440922190202</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.1070559610705596</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>game_type_Intraleague</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.3877592517283449</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4572164948453608</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.4314814814814815</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.4343910806174957</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.5088440970793912</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.3472622478386167</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.4412003244120032</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>game_stat</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1.187881252541684</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.384536082474227</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.934567901234568</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.194039451114923</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.225421637186343</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.227305475504323</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.496350364963504</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>throws_L</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.2604717364782432</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2484536082474227</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.2641975308641975</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.2405660377358491</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.3459481694775812</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.2514409221902018</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.2384428223844282</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>bats_L</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.3853192354615698</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3597938144329897</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.3679012345679012</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.3846483704974271</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.4269847799259564</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.3865273775216138</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.359286293592863</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>position_1B</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1075640504270028</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1190721649484536</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.104320987654321</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.1213550600343053</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.1213492389962978</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.100864553314121</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.1062449310624493</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>position_2B</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.1183407889385929</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1010309278350515</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.1172839506172839</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1142795883361921</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.1234060057589469</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.1235590778097983</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.1005677210056772</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>position_3B</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.1077673851159008</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1190721649484536</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.1253086419753086</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.116852487135506</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.1114767585355821</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.1084293948126801</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.1078669910786699</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>position_C</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.1130540870272469</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1087628865979381</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.1450617283950617</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.1269296740994854</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1262854792266557</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.1253602305475504</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.1321978913219789</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>position_CF</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1342008946726312</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.09226804123711341</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.1148148148148148</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.1084905660377359</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.1172357054709996</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.1286023054755043</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.1094890510948905</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>position_DH</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.0516470109800732</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.06288659793814433</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.05432098765432099</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0563893653516295</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.053475935828877</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.06159942363112392</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.06569343065693431</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>position_LF</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.1232208214721432</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.115979381443299</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.1030864197530864</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.1200686106346484</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1151789387083505</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.1203170028818444</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.09732360097323602</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>position_P</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.007523383489223262</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.005670103092783505</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.005555555555555556</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.008576329331046312</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.01234060057589469</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.007204610951008645</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0105433901054339</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>position_PH_PR</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.02480683204554697</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.06855670103092784</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.04444444444444445</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.02294168096054889</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02756067461949815</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.02737752161383285</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.05515004055150041</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>position_RF</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1195607970719805</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1134020618556701</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.09938271604938272</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.114065180102916</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1110654051830522</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1105907780979827</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.1257096512570965</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>position_SS</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0923139487596584</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.09329896907216495</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.08641975308641975</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.09005145797598628</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.08062525709584534</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.08609510086455331</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.08921330089213302</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>position_group_DH_PH_PR</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.07645384302562017</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1314432989690722</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.09876543209876543</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.07933104631217838</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.08103661044837515</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.08897694524495678</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.1208434712084347</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>position_group_Infielder</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.425986173241155</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.4324742268041237</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.4425385934819897</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.4368572603866722</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.4189481268011527</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.4038929440389294</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>position_group_Outfielder</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.3769825132167548</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.3216494845360825</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.3172839506172839</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.3426243567753002</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.3434800493624023</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.3595100864553314</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.332522303325223</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>position_group_Pitcher_Catcher</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.1205774705164701</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.1144329896907216</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.1506172839506173</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.1355060034305317</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.1386260798025504</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.1325648414985591</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.1427412814274128</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>lineup_spot_1</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.1697844652297682</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.1010309278350515</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.09444444444444444</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.09541166380789022</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.1160016454134101</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.1228386167146974</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.08353609083536091</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>lineup_spot_2</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.1173241154941033</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.1118556701030928</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.09876543209876543</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.1213550600343053</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.1213492389962978</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.1332853025936599</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.1062449310624493</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>lineup_spot_3</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.09821065473769826</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.1257731958762887</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.1222222222222222</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.1421526586620926</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.1242287124640066</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.1271613832853026</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.113544201135442</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>lineup_spot_4</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.1128507523383489</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.1298969072164949</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.1234567901234568</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.120926243567753</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.1110654051830522</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.1159942363112392</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.1257096512570965</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>lineup_spot_5</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.1250508336722245</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.1293814432989691</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.1123456790123457</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.1129931389365352</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.1110654051830522</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.1033861671469741</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.1013787510137875</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>lineup_spot_6</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.1055307035380236</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.1082474226804124</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.108641975308642</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.1147084048027444</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.1102305475504323</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.1346309813463098</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>lineup_spot_7</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.1028873525823505</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.1010309278350515</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.1080246913580247</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.1106346483704974</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.1048951048951049</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.1134726224783862</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.129764801297648</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>lineup_spot_8</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.09414396095973973</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.104639175257732</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.1253086419753086</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.1029159519725557</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.09954751131221719</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.100864553314121</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>lineup_spot_9</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.07421716144774299</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.08814432989690722</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.1067901234567901</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.07890222984562607</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.09419991772932949</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.07276657060518732</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.09407948094079481</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>fld_run_diff_Down by 1 run</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.1226108174054494</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.06082474226804124</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.1154320987654321</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.1462264150943396</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.1291649526943645</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.138328530259366</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.1224655312246553</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>fld_run_diff_Down by 2 to 3 runs</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.1390809272061814</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.004639175257731959</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.2074074074074074</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.1869639794168096</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.1468531468531468</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.1736311239193083</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.1013787510137875</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>fld_run_diff_Down by 4 to 6 runs</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.06994713298088653</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.1858024691358025</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.1104202401372213</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.08638420403126286</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.1019452449567723</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.0137875101378751</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>fld_run_diff_Down by 7 or more runs</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.02216348108987393</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.08271604938271605</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.03494854202401372</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.03619909502262444</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.0335014409221902</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>fld_run_diff_Tie score</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.3108987393249288</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.3448453608247423</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.0962962962962963</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.2364922813036021</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.25586178527355</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.234149855907781</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.2335766423357664</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>fld_run_diff_Up by 1 run</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.1095973973159821</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.3257731958762887</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.04876543209876543</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.06968267581475128</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.1114767585355821</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.09546109510086455</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.2984590429845904</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>fld_run_diff_Up by 2 to 3 runs</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.1337942252948353</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.2391752577319588</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.1061728395061728</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.1003430531732419</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.1271081859317154</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.1113112391930836</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.1995133819951338</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>fld_run_diff_Up by 4 to 6 runs</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.07015046766978447</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.02474226804123711</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.1037037037037037</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.08404802744425385</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.08645533141210375</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.0308191403081914</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>fld_run_diff_Up by 7 or more runs</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.02175681171207808</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.0537037037037037</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.03087478559176672</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03002879473467709</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.02521613832853026</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>pit_team_is_ahead</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.33529890199268</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.5896907216494846</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.3123456790123457</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.2849485420240137</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.3455368161250514</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.3184438040345821</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.5287915652879156</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>pit_team_is_behind</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.3538023586823912</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.0654639175257732</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.591358024691358</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.4785591766723842</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.3986013986013986</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.4474063400576369</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.2376317923763179</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>runners_on_1st</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.2049613664091094</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.2087628865979382</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.1814814814814815</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.1635934819897084</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.1554915672562731</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.149135446685879</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.2262773722627737</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>runners_on_1st_2nd</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.04920699471329809</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.1768041237113402</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.06049382716049383</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.03216123499142367</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04977375565610859</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.03314121037463977</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.3495539334955393</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>runners_on_1st_3rd</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.01891012606750712</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.1530927835051547</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.04382716049382716</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.02508576329331046</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.0283833813245578</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.02449567723342939</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.016220600162206</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>runners_on_2nd</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.05368035786905246</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.1824742268041237</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.08888888888888889</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.1172813036020583</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.09173179761415055</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.1242795389048991</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.008921330089213302</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>runners_on_2nd_3rd</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.01077673851159008</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.09742268041237113</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.01975308641975309</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.02422813036020583</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02344714109419992</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.03422190201729106</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.0008110300081103001</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>runners_on_3rd</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.009760065067100447</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.09742268041237113</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.03395061728395062</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.05210120068610635</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02591526120937886</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.0457492795389049</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.0024330900243309</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>runners_on_empty</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.6358275721838146</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.08402061855670104</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.5419753086419753</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.5855488850771869</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.6182640888523242</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.5871757925072046</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.06812652068126521</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>runners_on_full</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.01687677917852786</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.02962962962962963</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.006993006993006993</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.001801152737752161</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.3276561232765612</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>risp</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.1592110614070761</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.7072164948453609</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.2765432098765432</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.2508576329331046</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.2262443438914027</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.2636887608069164</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.7055961070559611</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>half_Top</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.590687271248475</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.3680412371134021</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.412962962962963</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.6162092624356775</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.4175236528177705</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.3930115273775216</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.4387672343876723</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>inning_rec_1</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.1344042293615291</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.07164948453608247</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.006790123456790123</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.1361492281303602</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.1102426984779926</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.1235590778097983</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.06812652068126521</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>inning_rec_2</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.1250508336722245</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.06391752577319587</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.01728395061728395</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.1132075471698113</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.1122994652406417</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.1268011527377522</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.08191403081914031</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>inning_rec_3</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.126270841805612</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.09278350515463918</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.05493827160493827</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.1241423670668954</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.1271081859317154</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.1239193083573487</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.0746147607461476</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>inning_rec_4</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.1193574623830825</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.08453608247422681</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.07839506172839507</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.1106346483704974</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.120937885643768</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.1095100864553314</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.08921330089213302</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>inning_rec_5</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.1132574217161448</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.09896907216494845</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.1006172839506173</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.1155660377358491</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.1197038255861785</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.1087896253602305</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.0867802108678021</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>inning_rec_6</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.09983733224888167</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.1180412371134021</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.1524691358024691</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.1114922813036021</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.1266968325791855</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.111671469740634</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.1240875912408759</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>inning_rec_7</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.1073607157381049</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.1417525773195876</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.191358024691358</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.1089193825042882</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.1102426984779926</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.1138328530259366</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.1143552311435523</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>inning_rec_8</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.09434729564863766</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.1412371134020619</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.2277777777777778</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.09476843910806175</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.1007815713698067</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.1167146974063401</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.1305758313057583</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>inning_rec_9</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.06466043106954046</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.1190721649484536</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.1376543209876543</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.07632933104631218</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.05758946935417524</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.06087896253602305</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.1638280616382806</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>inning_rec_10</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.01545343635624238</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.06804123711340206</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.03271604938271605</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.008790737564322471</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.01439736733854381</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.004322766570605188</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.0665044606650446</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>outs_ct</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.1321675477836519</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.461855670103093</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.9012345679012346</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.63336192109777</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.9905388728918141</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1.292507204610951</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>num_pitches</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2.919682797885319</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2.758247422680412</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2.90679012345679</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2.313250428816466</v>
+      </c>
+      <c r="G74" t="n">
+        <v>2.809543397778692</v>
+      </c>
+      <c r="H74" t="n">
+        <v>5.548631123919308</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3.085158150851581</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>the_count_0-0</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.1893045953639691</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.234020618556701</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.2037037037037037</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.2654373927958834</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.2468120115178939</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.2287104622871046</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>the_count_0-1</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.1762911752745018</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.1752577319587629</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.1722222222222222</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.2334905660377359</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.1620732208967503</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.1419302514193025</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>the_count_0-2</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.1232208214721432</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.111340206185567</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.1067901234567901</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.1194253859348199</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.1201151789387084</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.03998559077809798</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.113544201135442</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>the_count_1-0</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.06161041073607158</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.07474226804123711</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.07469135802469136</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.08061749571183534</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.053475935828877</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.07137064071370641</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>the_count_1-1</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.1203741358275722</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.1097938144329897</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.1172839506172839</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.1434391080617496</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.1122994652406417</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.01044668587896254</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.0851581508515815</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>the_count_1-2</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.1687677917852786</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.1304123711340206</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.1345679012345679</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.09326758147512865</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.1596051007815714</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.2654899135446686</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.1581508515815085</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>the_count_2-0</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.01504676697844652</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.0154639175257732</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.02716049382716049</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.02251286449399657</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.009049773755656109</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.002521613832853026</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.0145985401459854</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>the_count_2-1</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.03477023180154534</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.04690721649484536</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.04197530864197531</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.03173241852487135</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.03044014808720691</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.03854466858789626</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.024330900243309</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>the_count_2-2</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.0868239121594144</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.07268041237113403</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.08024691358024691</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.005145797598627788</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.08062525709584534</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.4099423631123919</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.1200324412003244</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>the_count_3-0</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.002236681577877186</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.003092783505154639</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.004938271604938272</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.003644939965694683</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.0008227067050596463</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.003602305475504323</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.0032441200324412</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>the_count_3-1</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.008133387555917039</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.01185567010309278</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.01234567901234568</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.001286449399656947</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.006170300287947347</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.02989913544668588</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.006488240064882401</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>the_count_3-2</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.01342008946726311</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.01443298969072165</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.02407407407407407</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.01851090086384204</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.1995677233429395</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.032441200324412</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>pitch_type_Changeup (CH)</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.03700691337942253</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.02783505154639175</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.04444444444444445</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.02444253859348199</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.06951871657754011</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.06159942363112392</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.0364963503649635</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>pitch_type_Curveball (CU, CS)</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.03090687271248475</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.04793814432989691</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.08148148148148149</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.01672384219554031</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.6334841628959276</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.05295389048991354</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.1021897810218978</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>pitch_type_Cutter (FC)</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.08113054087027247</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.07010309278350516</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.04506172839506173</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.0645368782161235</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.01316330728095434</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.07420749279538905</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.0575831305758313</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>pitch_type_Fastball (FA)</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.4005693371289142</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.4118556701030928</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.4631217838765009</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.01028383381324558</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.3667146974063401</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.3568532035685321</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>pitch_type_Knuckleball (KN)</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.000203334688897926</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.001030927835051546</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.002469135802469136</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.0002144082332761578</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04031262854792267</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.002521613832853026</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.0040551500405515</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>pitch_type_Sinker (SI)</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.31862545750305</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.3067010309278351</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.2703703703703704</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.3278301886792453</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.0106951871657754</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.2532420749279539</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.2716950527169505</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>pitch_type_Slider (SL, SB)</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.120984139894266</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.1237113402061856</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.1512345679012346</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.09519725557461406</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.2052653229123817</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.1667867435158502</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.1557177615571776</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>pitch_type_Splitter (FS)</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.01057340382269215</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.01082474226804124</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.01604938271604938</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.007933104631217838</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.01727684080625257</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.02197406340057637</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.0154095701540957</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>velocity</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>90.1101057340381</v>
+      </c>
+      <c r="C95" t="n">
+        <v>90.72551546391762</v>
+      </c>
+      <c r="D95" t="n">
+        <v>92.96299999999995</v>
+      </c>
+      <c r="E95" t="n">
+        <v>89.25746913580257</v>
+      </c>
+      <c r="F95" t="n">
+        <v>91.17032590051444</v>
+      </c>
+      <c r="G95" t="n">
+        <v>77.61213492389963</v>
+      </c>
+      <c r="H95" t="n">
+        <v>89.4675792507206</v>
+      </c>
+      <c r="I95" t="n">
+        <v>89.21054339010558</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>low_velocity</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.1360309068727125</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.1407216494845361</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.2197530864197531</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.08855060034305318</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.9819004524886877</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.2006484149855908</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.2416869424168694</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>avg_velocity</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.6030906872712485</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.506701030927835</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.5593910806174958</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.01809954751131222</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.5338616714697406</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.4476885644768857</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>high_velocity</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.2608784058560391</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.3525773195876289</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.2802469135802469</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.3520583190394511</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.2654899135446686</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.310624493106245</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>velocity_range_70-79 mph</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.01870679137860919</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.0288659793814433</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.07962962962962963</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.00493138936535163</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.6314273961332785</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.04178674351585014</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.08434712084347121</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>velocity_range_80-89 mph</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.4042293615290768</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.3123711340206186</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.367283950617284</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.3093910806174957</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.3146853146853147</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.4239913544668588</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.3682076236820762</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>velocity_range_90-95 mph</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.5215534770231801</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.5597938144329897</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.6082761578044596</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.4672190201729107</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.4549878345498783</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>velocity_range_96+ mph</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.05551037006913379</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.09896907216494845</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.07740137221269297</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.06628242074927954</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.0908353609083536</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>velocity_range_Under 70 mph</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.001234567901234568</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.05388728918140683</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.0007204610951008645</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.0016220600162206</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>velocity_range_Unknown</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>rbi_on_play</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.01687677917852786</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.02962962962962963</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.006993006993006993</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.001801152737752161</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.3276561232765612</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>win_prob_added</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.03708621390809327</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.03843298969072178</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.01640000000000001</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.01841975308641986</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.01360205831903965</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.0238543809132046</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.01775936599423647</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.1020437956204376</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>base_out_runs_added</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.440935339568939</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.2727164948453589</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.2697000000000001</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.3416172839506151</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.1965351629502579</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.2967215137803356</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.2440273775216129</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.7534955393349569</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>leverage_index</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.9994001626677389</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2.24974742268041</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.5442000000000004</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.6270679012345673</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.5713121783876529</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.794327437268612</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.6813436599423617</v>
+      </c>
+      <c r="I108" t="n">
+        <v>2.986682887266829</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>winning_team_Team pitching</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.4172427816185441</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.6211340206185567</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.367283950617284</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.4277444253859348</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.4310983134512546</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.4236311239193083</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.424168694241687</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>pit_removed</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.03904026026840179</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.1144329896907216</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.09506172839506173</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.05038593481989708</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.053475935828877</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.055835734870317</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.1265206812652068</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>bat_removed</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.02257015046766979</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.03762886597938144</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.03888888888888889</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.02036878216123499</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.01480872069107363</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.02737752161383285</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.040551500405515</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>pit_ejected</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>bat_ejected</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>any_ejection</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>ejections_ct</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>velocity_missing</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>